--- a/lab13/wyniki.xlsx
+++ b/lab13/wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rownolegle\lab13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ECD5B7-66FB-43EC-BDBF-B7BBFD172EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56E3CFD-7F62-4DCD-B828-4828F4AC3818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F88E4DAB-D45D-44FA-B043-7D7CF45B79E2}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$8:$F$8</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$16:$F$16</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$15:$F$15</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$8:$F$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -200,8 +200,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -230,7 +230,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numLit>
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="4"/>
@@ -247,8 +247,8 @@
                 <c:v>6</c:v>
               </c:pt>
             </c:numLit>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$C$6:$F$6</c:f>
               <c:numCache>
@@ -268,7 +268,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -284,12 +284,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
         <c:axId val="1069042479"/>
         <c:axId val="1069044399"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1069042479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -390,11 +388,8 @@
         </c:txPr>
         <c:crossAx val="1069044399"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="1069044399"/>
         <c:scaling>
@@ -505,7 +500,7 @@
         </c:txPr>
         <c:crossAx val="1069042479"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -636,8 +631,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -666,7 +661,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numLit>
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="4"/>
@@ -683,8 +678,8 @@
                 <c:v>6</c:v>
               </c:pt>
             </c:numLit>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$C$15:$F$15</c:f>
               <c:numCache>
@@ -704,7 +699,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -720,12 +715,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
         <c:axId val="774139199"/>
         <c:axId val="774141119"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="774139199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -826,11 +819,8 @@
         </c:txPr>
         <c:crossAx val="774141119"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="774141119"/>
         <c:scaling>
@@ -941,7 +931,7 @@
         </c:txPr>
         <c:crossAx val="774139199"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -6945,8 +6935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6043E229-BA14-4BA3-B3AE-C550CE3683A6}">
   <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E26" zoomScale="68" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
